--- a/revision/revision.xlsx
+++ b/revision/revision.xlsx
@@ -367,7 +367,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -581,7 +581,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -794,7 +794,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
